--- a/trabalho2/resultados.xlsx
+++ b/trabalho2/resultados.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\raulm\Documents\Study\CEFET\Problemas Inversos Em Python\trabalho2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B163713E-1D94-4E2F-9820-B6F4A1FA400B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF0355CD-E6AD-496D-BF8B-3B07EE4582F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C40E5958-9D3B-4741-B89B-D7BAB36029AB}"/>
   </bookViews>
@@ -1017,42 +1017,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1074,6 +1038,42 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1089,6 +1089,7473 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Luus-Jaakola</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$2:$D$3</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>nInt=25, nOut=25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>fObj(cp)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$4:$B$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$4:$D$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>8330.3828203852099</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8330.3828707078301</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8330.3823308613391</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-B721-4EAF-9AC7-A9BE30319B96}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$F$2:$F$3</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>nInt=50, nOut=50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>fObj(cp)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$4:$B$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$4:$F$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>8330.3824056154008</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8330.3823285618892</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8330.3823274999995</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-B721-4EAF-9AC7-A9BE30319B96}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$H$2:$H$3</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>nInt=75, nOut=75</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>fObj(cp)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$4:$B$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$H$4:$H$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>8330.3823311968699</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8330.3823274849001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8330.3823274790993</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-B721-4EAF-9AC7-A9BE30319B96}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$J$2:$J$3</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>nInt=100, nOut=100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>fObj(cp)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$4:$B$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$J$4:$J$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>8330.38232748064</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8330.3823274791193</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8330.3823274790902</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-B721-4EAF-9AC7-A9BE30319B96}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$2:$C$3</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>nInt=25, nOut=25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>cp</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$4:$B$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$4:$C$7</c:f>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B721-4EAF-9AC7-A9BE30319B96}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$2:$E$3</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>nInt=50, nOut=50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>cp</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$4:$B$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$4:$E$7</c:f>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-B721-4EAF-9AC7-A9BE30319B96}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$G$2:$G$3</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>nInt=75, nOut=75</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>cp</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$4:$B$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$G$4:$G$7</c:f>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-B721-4EAF-9AC7-A9BE30319B96}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$I$2:$I$3</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>nInt=100, nOut=100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>cp</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$4:$B$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$I$4:$I$7</c:f>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-B721-4EAF-9AC7-A9BE30319B96}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="705445856"/>
+        <c:axId val="705450176"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="705445856"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Coeficiente de Contração (coef)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="705450176"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="705450176"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>fObj(cp)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="705445856"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.17655008748906387"/>
+          <c:y val="0.81365631379410908"/>
+          <c:w val="0.63023315835520555"/>
+          <c:h val="0.14930664916885386"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Evolução Diferencial (nGen=25)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$N$9:$N$10</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>CR=0.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>cp</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$M$11:$M$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.75</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$N$11:$N$14</c:f>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4AE9-4510-BDED-2DB0A2F29850}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$O$9:$O$10</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>CR=0.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>fObj(cp)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$M$11:$M$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.75</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$O$11:$O$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>8330.4113550628299</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8330.4024399985501</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8330.4392963104201</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8330.3886505166502</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-4AE9-4510-BDED-2DB0A2F29850}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$P$9:$P$10</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>CR=0.4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>cp</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$M$11:$M$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.75</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$P$11:$P$14</c:f>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-4AE9-4510-BDED-2DB0A2F29850}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$Q$9:$Q$10</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>CR=0.4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>fObj(cp)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$M$11:$M$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.75</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$Q$11:$Q$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>8330.3823275781597</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8330.3901792636098</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8330.4490993720192</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8330.3827196891198</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-4AE9-4510-BDED-2DB0A2F29850}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$R$9:$R$10</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>CR=0.6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>cp</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$M$11:$M$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.75</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$R$11:$R$14</c:f>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-4AE9-4510-BDED-2DB0A2F29850}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$S$9:$S$10</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>CR=0.6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>fObj(cp)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$M$11:$M$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.75</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$S$11:$S$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>8330.3823275102604</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8330.3823275095692</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8330.3825782579497</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8330.3859932971991</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-4AE9-4510-BDED-2DB0A2F29850}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$T$9:$T$10</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>CR=0.8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>cp</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$M$11:$M$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.75</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$T$11:$T$14</c:f>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-4AE9-4510-BDED-2DB0A2F29850}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$U$9:$U$10</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>CR=0.8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>fObj(cp)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$M$11:$M$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.75</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$U$11:$U$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>8330.3823274797996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8330.3823304298294</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8330.3826175193499</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8330.4567930793201</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-4AE9-4510-BDED-2DB0A2F29850}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="724549743"/>
+        <c:axId val="724549263"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="724549743"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Taxa de Mutação (F)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="724549263"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="724549263"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>fObj(cp)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="724549743"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Evolução Diferencial (nGen=50)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$N$9:$N$10</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>CR=0.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>cp</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$M$15:$M$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.75</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$N$15:$N$18</c:f>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-458B-4052-B533-077757C05328}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$O$9:$O$10</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>CR=0.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>fObj(cp)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$M$15:$M$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.75</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$O$15:$O$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>8330.3823424332695</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8330.3823530558493</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8330.3866107099602</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8330.3886505166502</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-458B-4052-B533-077757C05328}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$P$9:$P$10</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>CR=0.4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>cp</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$M$15:$M$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.75</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$P$15:$P$18</c:f>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-458B-4052-B533-077757C05328}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$Q$9:$Q$10</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>CR=0.4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>fObj(cp)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$M$15:$M$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.75</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$Q$15:$Q$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>8330.3823274791102</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8330.3823278325708</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8330.3823275420491</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8330.3827196891198</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-458B-4052-B533-077757C05328}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$R$9:$R$10</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>CR=0.6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>cp</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$M$15:$M$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.75</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$R$15:$R$18</c:f>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-458B-4052-B533-077757C05328}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$S$9:$S$10</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>CR=0.6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>fObj(cp)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$M$15:$M$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.75</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$S$15:$S$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>8330.3823274790993</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8330.3823274791102</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8330.3823277447209</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8330.3823449430492</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-458B-4052-B533-077757C05328}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$T$9:$T$10</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>CR=0.8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>cp</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$M$15:$M$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.75</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$T$15:$T$18</c:f>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-458B-4052-B533-077757C05328}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$U$9:$U$10</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>CR=0.8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>fObj(cp)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$M$15:$M$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.75</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$U$15:$U$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>8330.3823274790993</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8330.3823274791102</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8330.3823274791594</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8330.3823352926192</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-458B-4052-B533-077757C05328}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="732372783"/>
+        <c:axId val="732373263"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="732372783"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Taxa de Mutação (F)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="732373263"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="732373263"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>fObj(cp)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="732372783"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Evolução Diferencial (nGen=75)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$N$9:$N$10</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>CR=0.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>cp</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$M$19:$M$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.75</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$N$19:$N$22</c:f>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-980B-451E-BB8F-35B7AC0C22F1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$O$9:$O$10</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>CR=0.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>fObj(cp)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$M$19:$M$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.75</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$O$19:$O$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>8330.3823274791903</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8330.3823275933191</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8330.3823325418507</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8330.3824299911994</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-980B-451E-BB8F-35B7AC0C22F1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$P$9:$P$10</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>CR=0.4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>cp</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$M$19:$M$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.75</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$P$19:$P$22</c:f>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-980B-451E-BB8F-35B7AC0C22F1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$Q$9:$Q$10</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>CR=0.4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>fObj(cp)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$M$19:$M$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.75</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$Q$19:$Q$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>8330.3823274790993</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8330.3823274791102</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8330.3823275420491</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8330.38233330818</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-980B-451E-BB8F-35B7AC0C22F1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$R$9:$R$10</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>CR=0.6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>cp</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$M$19:$M$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.75</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$R$19:$R$22</c:f>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-980B-451E-BB8F-35B7AC0C22F1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$S$9:$S$10</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>CR=0.6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>fObj(cp)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$M$19:$M$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.75</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$S$19:$S$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>8330.3823274790902</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8330.3823274790993</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8330.3823274791102</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8330.3823276407402</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-980B-451E-BB8F-35B7AC0C22F1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$T$9:$T$10</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>CR=0.8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>cp</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$M$19:$M$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.75</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$T$19:$T$22</c:f>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-980B-451E-BB8F-35B7AC0C22F1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$U$9:$U$10</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>CR=0.8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>fObj(cp)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$M$19:$M$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.75</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$U$19:$U$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>8330.3823274790902</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8330.3823274790993</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8330.3823274790993</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8330.3823274797105</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-980B-451E-BB8F-35B7AC0C22F1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="598728015"/>
+        <c:axId val="598722255"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="598728015"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Taxa de Mutação (F)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="598722255"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="598722255"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>fObj(cp)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="598728015"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Evolução</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Diferencial (nGen=100)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$N$9:$N$10</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>CR=0.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>cp</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$M$23:$M$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.75</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$N$23:$N$26</c:f>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-26B4-4625-A1EB-1464E84F5ACF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$O$9:$O$10</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>CR=0.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>fObj(cp)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$M$23:$M$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.75</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$O$23:$O$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>8330.3823274791903</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8330.3823274791193</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8330.3823315997797</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8330.3823275840696</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-26B4-4625-A1EB-1464E84F5ACF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$P$9:$P$10</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>CR=0.4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>cp</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$M$23:$M$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.75</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$P$23:$P$26</c:f>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-26B4-4625-A1EB-1464E84F5ACF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$Q$9:$Q$10</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>CR=0.4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>fObj(cp)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$M$23:$M$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.75</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$Q$23:$Q$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>8330.3823274790993</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8330.3823274790993</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8330.3823274796505</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8330.3823275417799</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-26B4-4625-A1EB-1464E84F5ACF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$R$9:$R$10</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>CR=0.6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>cp</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$M$23:$M$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.75</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$R$23:$R$26</c:f>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-26B4-4625-A1EB-1464E84F5ACF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$S$9:$S$10</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>CR=0.6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>fObj(cp)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$M$23:$M$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.75</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$S$23:$S$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>8330.3823274790902</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8330.3823274790993</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8330.3823274790993</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8330.3823274792194</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-26B4-4625-A1EB-1464E84F5ACF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$T$9:$T$10</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>CR=0.8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>cp</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$M$23:$M$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.75</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$T$23:$T$26</c:f>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-26B4-4625-A1EB-1464E84F5ACF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$U$9:$U$10</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>CR=0.8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>fObj(cp)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$M$23:$M$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.75</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$U$23:$U$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>8330.3823274790902</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8330.3823274790993</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8330.3823274790993</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8330.3823274790993</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-26B4-4625-A1EB-1464E84F5ACF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="853460847"/>
+        <c:axId val="853464207"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="853460847"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Taxa de Mutação (F)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="853464207"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="853464207"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="853460847"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>100012</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>233362</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D10C16D-F9A2-0EDA-1973-8D91188EB615}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>147637</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>33337</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F4EBC666-164A-7A54-8451-E963C6DF84EE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>195262</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>80962</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC001AA1-2C29-37C7-D9DB-6D6116858605}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>157162</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>42862</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C71E36A2-11FD-539F-F7C0-C2A0E046CDDA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>233362</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>119062</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Chart 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{20A18E9B-1BF4-10CF-492E-4410774CABA0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1410,44 +8877,58 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF813977-AA65-4019-958A-1F8AE5E8061E}">
   <dimension ref="B1:U26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U23" sqref="U23"/>
+    <sheetView tabSelected="1" topLeftCell="K11" workbookViewId="0">
+      <selection activeCell="S35" sqref="S35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="12.42578125" style="1" customWidth="1"/>
-    <col min="3" max="10" width="10.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" style="1" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="10.140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" style="1" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="10.140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="10.140625" style="1" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="10.140625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="10.140625" style="1" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="10.140625" style="1" customWidth="1"/>
     <col min="11" max="13" width="12.140625" style="1" customWidth="1"/>
-    <col min="14" max="21" width="10.140625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="10.140625" style="1" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="10.140625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="10.140625" style="1" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="10.140625" style="1" customWidth="1"/>
+    <col min="18" max="18" width="10.140625" style="1" hidden="1" customWidth="1"/>
+    <col min="19" max="19" width="10.140625" style="1" customWidth="1"/>
+    <col min="20" max="20" width="10.140625" style="1" hidden="1" customWidth="1"/>
+    <col min="21" max="21" width="10.140625" style="1" customWidth="1"/>
     <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:21" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:21" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="47" t="s">
+      <c r="C2" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="48"/>
-      <c r="E2" s="49" t="s">
+      <c r="D2" s="51"/>
+      <c r="E2" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="50"/>
-      <c r="G2" s="47" t="s">
+      <c r="F2" s="53"/>
+      <c r="G2" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="48"/>
-      <c r="I2" s="49" t="s">
+      <c r="H2" s="51"/>
+      <c r="I2" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="J2" s="48"/>
+      <c r="J2" s="51"/>
     </row>
     <row r="3" spans="2:21" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="52"/>
+      <c r="B3" s="49"/>
       <c r="C3" s="13" t="s">
         <v>1</v>
       </c>
@@ -1527,7 +9008,7 @@
       <c r="I5" s="32">
         <v>918.39317093709303</v>
       </c>
-      <c r="J5" s="53">
+      <c r="J5" s="41">
         <v>8330.38232748064</v>
       </c>
     </row>
@@ -1550,13 +9031,13 @@
       <c r="G6" s="6">
         <v>918.393089462072</v>
       </c>
-      <c r="H6" s="56">
+      <c r="H6" s="44">
         <v>8330.3823274849001</v>
       </c>
       <c r="I6" s="15">
         <v>918.39325952221702</v>
       </c>
-      <c r="J6" s="54">
+      <c r="J6" s="42">
         <v>8330.3823274791193</v>
       </c>
     </row>
@@ -1579,13 +9060,13 @@
       <c r="G7" s="26">
         <v>918.39325437795901</v>
       </c>
-      <c r="H7" s="57">
+      <c r="H7" s="45">
         <v>8330.3823274790993</v>
       </c>
       <c r="I7" s="24">
         <v>918.39325965354703</v>
       </c>
-      <c r="J7" s="55">
+      <c r="J7" s="43">
         <v>8330.3823274790902</v>
       </c>
     </row>
@@ -1608,36 +9089,36 @@
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
-      <c r="K9" s="44" t="s">
+      <c r="K9" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="L9" s="44" t="s">
+      <c r="L9" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="M9" s="44" t="s">
+      <c r="M9" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="N9" s="47" t="s">
+      <c r="N9" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="O9" s="48"/>
-      <c r="P9" s="49" t="s">
+      <c r="O9" s="51"/>
+      <c r="P9" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="Q9" s="50"/>
-      <c r="R9" s="47" t="s">
+      <c r="Q9" s="53"/>
+      <c r="R9" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="S9" s="48"/>
-      <c r="T9" s="49" t="s">
+      <c r="S9" s="51"/>
+      <c r="T9" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="U9" s="48"/>
+      <c r="U9" s="51"/>
     </row>
     <row r="10" spans="2:21" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="K10" s="45"/>
-      <c r="L10" s="46"/>
-      <c r="M10" s="46"/>
+      <c r="K10" s="59"/>
+      <c r="L10" s="55"/>
+      <c r="M10" s="55"/>
       <c r="N10" s="13" t="s">
         <v>1</v>
       </c>
@@ -1664,10 +9145,10 @@
       </c>
     </row>
     <row r="11" spans="2:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K11" s="41">
+      <c r="K11" s="56">
         <v>10</v>
       </c>
-      <c r="L11" s="41">
+      <c r="L11" s="56">
         <v>25</v>
       </c>
       <c r="M11" s="29">
@@ -1694,13 +9175,13 @@
       <c r="T11" s="32">
         <v>918.39319880827304</v>
       </c>
-      <c r="U11" s="53">
+      <c r="U11" s="41">
         <v>8330.3823274797996</v>
       </c>
     </row>
     <row r="12" spans="2:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K12" s="42"/>
-      <c r="L12" s="42"/>
+      <c r="K12" s="57"/>
+      <c r="L12" s="57"/>
       <c r="M12" s="9">
         <v>0.75</v>
       </c>
@@ -1730,8 +9211,8 @@
       </c>
     </row>
     <row r="13" spans="2:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K13" s="42"/>
-      <c r="L13" s="42"/>
+      <c r="K13" s="57"/>
+      <c r="L13" s="57"/>
       <c r="M13" s="9">
         <v>1.25</v>
       </c>
@@ -1761,8 +9242,8 @@
       </c>
     </row>
     <row r="14" spans="2:21" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="K14" s="42"/>
-      <c r="L14" s="42"/>
+      <c r="K14" s="57"/>
+      <c r="L14" s="57"/>
       <c r="M14" s="28">
         <v>1.75</v>
       </c>
@@ -1792,8 +9273,8 @@
       </c>
     </row>
     <row r="15" spans="2:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K15" s="42"/>
-      <c r="L15" s="41">
+      <c r="K15" s="57"/>
+      <c r="L15" s="56">
         <v>50</v>
       </c>
       <c r="M15" s="29">
@@ -1808,25 +9289,25 @@
       <c r="P15" s="32">
         <v>918.39325244651195</v>
       </c>
-      <c r="Q15" s="53">
+      <c r="Q15" s="41">
         <v>8330.3823274791102</v>
       </c>
       <c r="R15" s="38">
         <v>918.39325968482603</v>
       </c>
-      <c r="S15" s="58">
+      <c r="S15" s="46">
         <v>8330.3823274790993</v>
       </c>
       <c r="T15" s="32">
         <v>918.39325815540894</v>
       </c>
-      <c r="U15" s="53">
+      <c r="U15" s="41">
         <v>8330.3823274790993</v>
       </c>
     </row>
     <row r="16" spans="2:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K16" s="42"/>
-      <c r="L16" s="42"/>
+      <c r="K16" s="57"/>
+      <c r="L16" s="57"/>
       <c r="M16" s="9">
         <v>0.75</v>
       </c>
@@ -1845,19 +9326,19 @@
       <c r="R16" s="6">
         <v>918.39325641547202</v>
       </c>
-      <c r="S16" s="56">
+      <c r="S16" s="44">
         <v>8330.3823274791102</v>
       </c>
       <c r="T16" s="14">
         <v>918.39325546031398</v>
       </c>
-      <c r="U16" s="59">
+      <c r="U16" s="47">
         <v>8330.3823274791102</v>
       </c>
     </row>
     <row r="17" spans="11:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K17" s="42"/>
-      <c r="L17" s="42"/>
+      <c r="K17" s="57"/>
+      <c r="L17" s="57"/>
       <c r="M17" s="9">
         <v>1.25</v>
       </c>
@@ -1882,13 +9363,13 @@
       <c r="T17" s="14">
         <v>918.39327183832097</v>
       </c>
-      <c r="U17" s="59">
+      <c r="U17" s="47">
         <v>8330.3823274791594</v>
       </c>
     </row>
     <row r="18" spans="11:21" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="K18" s="42"/>
-      <c r="L18" s="43"/>
+      <c r="K18" s="57"/>
+      <c r="L18" s="58"/>
       <c r="M18" s="28">
         <v>1.75</v>
       </c>
@@ -1918,8 +9399,8 @@
       </c>
     </row>
     <row r="19" spans="11:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K19" s="42"/>
-      <c r="L19" s="41">
+      <c r="K19" s="57"/>
+      <c r="L19" s="56">
         <v>75</v>
       </c>
       <c r="M19" s="29">
@@ -1928,31 +9409,31 @@
       <c r="N19" s="38">
         <v>918.39323624551503</v>
       </c>
-      <c r="O19" s="58">
+      <c r="O19" s="46">
         <v>8330.3823274791903</v>
       </c>
       <c r="P19" s="32">
         <v>918.39325434868795</v>
       </c>
-      <c r="Q19" s="53">
+      <c r="Q19" s="41">
         <v>8330.3823274790993</v>
       </c>
       <c r="R19" s="38">
         <v>918.39325463924195</v>
       </c>
-      <c r="S19" s="58">
+      <c r="S19" s="46">
         <v>8330.3823274790902</v>
       </c>
       <c r="T19" s="32">
         <v>918.39325973286395</v>
       </c>
-      <c r="U19" s="53">
+      <c r="U19" s="41">
         <v>8330.3823274790902</v>
       </c>
     </row>
     <row r="20" spans="11:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K20" s="42"/>
-      <c r="L20" s="42"/>
+      <c r="K20" s="57"/>
+      <c r="L20" s="57"/>
       <c r="M20" s="9">
         <v>0.75</v>
       </c>
@@ -1965,25 +9446,25 @@
       <c r="P20" s="14">
         <v>918.39325337918001</v>
       </c>
-      <c r="Q20" s="59">
+      <c r="Q20" s="47">
         <v>8330.3823274791102</v>
       </c>
       <c r="R20" s="6">
         <v>918.39325534945499</v>
       </c>
-      <c r="S20" s="56">
+      <c r="S20" s="44">
         <v>8330.3823274790993</v>
       </c>
       <c r="T20" s="14">
         <v>918.39325631390204</v>
       </c>
-      <c r="U20" s="59">
+      <c r="U20" s="47">
         <v>8330.3823274790993</v>
       </c>
     </row>
     <row r="21" spans="11:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K21" s="42"/>
-      <c r="L21" s="42"/>
+      <c r="K21" s="57"/>
+      <c r="L21" s="57"/>
       <c r="M21" s="9">
         <v>1.25</v>
       </c>
@@ -2002,19 +9483,19 @@
       <c r="R21" s="6">
         <v>918.39324970909001</v>
       </c>
-      <c r="S21" s="56">
+      <c r="S21" s="44">
         <v>8330.3823274791102</v>
       </c>
       <c r="T21" s="15">
         <v>918.39325690503495</v>
       </c>
-      <c r="U21" s="54">
+      <c r="U21" s="42">
         <v>8330.3823274790993</v>
       </c>
     </row>
     <row r="22" spans="11:21" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="K22" s="42"/>
-      <c r="L22" s="43"/>
+      <c r="K22" s="57"/>
+      <c r="L22" s="58"/>
       <c r="M22" s="28">
         <v>1.75</v>
       </c>
@@ -2039,13 +9520,13 @@
       <c r="T22" s="24">
         <v>918.39320286020404</v>
       </c>
-      <c r="U22" s="55">
+      <c r="U22" s="43">
         <v>8330.3823274797105</v>
       </c>
     </row>
     <row r="23" spans="11:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K23" s="42"/>
-      <c r="L23" s="41">
+      <c r="K23" s="57"/>
+      <c r="L23" s="56">
         <v>100</v>
       </c>
       <c r="M23" s="35">
@@ -2054,62 +9535,62 @@
       <c r="N23" s="32">
         <v>918.39323624551503</v>
       </c>
-      <c r="O23" s="53">
+      <c r="O23" s="41">
         <v>8330.3823274791903</v>
       </c>
       <c r="P23" s="32">
         <v>918.39325450263902</v>
       </c>
-      <c r="Q23" s="53">
+      <c r="Q23" s="41">
         <v>8330.3823274790993</v>
       </c>
       <c r="R23" s="38">
         <v>918.39325463924195</v>
       </c>
-      <c r="S23" s="58">
+      <c r="S23" s="46">
         <v>8330.3823274790902</v>
       </c>
       <c r="T23" s="32">
         <v>918.39325973286395</v>
       </c>
-      <c r="U23" s="53">
+      <c r="U23" s="41">
         <v>8330.3823274790902</v>
       </c>
     </row>
     <row r="24" spans="11:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K24" s="42"/>
-      <c r="L24" s="42"/>
+      <c r="K24" s="57"/>
+      <c r="L24" s="57"/>
       <c r="M24" s="36">
         <v>0.75</v>
       </c>
       <c r="N24" s="20">
         <v>918.39326424140904</v>
       </c>
-      <c r="O24" s="54">
+      <c r="O24" s="42">
         <v>8330.3823274791193</v>
       </c>
       <c r="P24" s="14">
         <v>918.39325988639803</v>
       </c>
-      <c r="Q24" s="59">
+      <c r="Q24" s="47">
         <v>8330.3823274790993</v>
       </c>
       <c r="R24" s="6">
         <v>918.39325640577897</v>
       </c>
-      <c r="S24" s="56">
+      <c r="S24" s="44">
         <v>8330.3823274790993</v>
       </c>
       <c r="T24" s="14">
         <v>918.39325631390204</v>
       </c>
-      <c r="U24" s="59">
+      <c r="U24" s="47">
         <v>8330.3823274790993</v>
       </c>
     </row>
     <row r="25" spans="11:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K25" s="42"/>
-      <c r="L25" s="42"/>
+      <c r="K25" s="57"/>
+      <c r="L25" s="57"/>
       <c r="M25" s="36">
         <v>1.25</v>
       </c>
@@ -2122,25 +9603,25 @@
       <c r="P25" s="15">
         <v>918.39330639042601</v>
       </c>
-      <c r="Q25" s="54">
+      <c r="Q25" s="42">
         <v>8330.3823274796505</v>
       </c>
       <c r="R25" s="6">
         <v>918.39325751680201</v>
       </c>
-      <c r="S25" s="56">
+      <c r="S25" s="44">
         <v>8330.3823274790993</v>
       </c>
       <c r="T25" s="15">
         <v>918.39325690503495</v>
       </c>
-      <c r="U25" s="54">
+      <c r="U25" s="42">
         <v>8330.3823274790993</v>
       </c>
     </row>
     <row r="26" spans="11:21" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="K26" s="43"/>
-      <c r="L26" s="43"/>
+      <c r="K26" s="58"/>
+      <c r="L26" s="58"/>
       <c r="M26" s="3">
         <v>1.75</v>
       </c>
@@ -2159,28 +9640,18 @@
       <c r="R26" s="26">
         <v>918.39323302628998</v>
       </c>
-      <c r="S26" s="57">
+      <c r="S26" s="45">
         <v>8330.3823274792194</v>
       </c>
       <c r="T26" s="24">
         <v>918.39325291231103</v>
       </c>
-      <c r="U26" s="55">
+      <c r="U26" s="43">
         <v>8330.3823274790993</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="P9:Q9"/>
-    <mergeCell ref="R9:S9"/>
-    <mergeCell ref="T9:U9"/>
-    <mergeCell ref="M9:M10"/>
     <mergeCell ref="L11:L14"/>
     <mergeCell ref="L15:L18"/>
     <mergeCell ref="L19:L22"/>
@@ -2188,8 +9659,19 @@
     <mergeCell ref="K9:K10"/>
     <mergeCell ref="K11:K26"/>
     <mergeCell ref="L9:L10"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="P9:Q9"/>
+    <mergeCell ref="R9:S9"/>
+    <mergeCell ref="T9:U9"/>
+    <mergeCell ref="M9:M10"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:J2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>